--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_DeviceApplication.xlsx
@@ -69,201 +69,727 @@
     <t>Minimize with javascript ApplicationEvent</t>
   </si>
   <si>
+    <t>Device &amp; Application Clear the Alarm when set using interval param</t>
+  </si>
+  <si>
+    <t>Restore with ApplicationEvent</t>
+  </si>
+  <si>
+    <t>History:Back Navigation</t>
+  </si>
+  <si>
+    <t>Hourglass hidden</t>
+  </si>
+  <si>
+    <t>Change Start page</t>
+  </si>
+  <si>
+    <t>Timer with start method when interval is set</t>
+  </si>
+  <si>
+    <t>Timer with stop</t>
+  </si>
+  <si>
+    <t>Set the alarm</t>
+  </si>
+  <si>
+    <t>Set the alarm with Repeat value to false</t>
+  </si>
+  <si>
+    <t>alarm with different interval</t>
+  </si>
+  <si>
+    <t>Hourglass visible</t>
+  </si>
+  <si>
+    <t>Hourglass left</t>
+  </si>
+  <si>
+    <t>Hourglass top</t>
+  </si>
+  <si>
+    <t>Hourglass</t>
+  </si>
+  <si>
+    <t>PowerOn Event with javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-876
+};
+validate4
+{
+validate_Result=1
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-877
+};
+validate4
+{
+validate_Result=Alarm Cleared
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-874
+};
+validate4
+{
+validate_Result=2
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-875
+};
+validate4
+{
+validate_Result=2
+};
+</t>
+  </si>
+  <si>
+    <t>alarm with URL</t>
+  </si>
+  <si>
+    <t>PowerOn Event with url</t>
+  </si>
+  <si>
+    <t>ScreenOrientation RightHanded</t>
+  </si>
+  <si>
+    <t>ScreenOrientation LeftHanded</t>
+  </si>
+  <si>
+    <t>ScreenOrientation Upsidedown</t>
+  </si>
+  <si>
+    <t>ScreenOrientation Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-913
+};
+validate4
+{
+validate_screenOrientation=rotation2
+};
+</t>
+  </si>
+  <si>
+    <t>ScreenOrientation with url</t>
+  </si>
+  <si>
+    <t>ScreenOrientation with javascript</t>
+  </si>
+  <si>
+    <t>Textsize as largest</t>
+  </si>
+  <si>
+    <t>Textsize as larger</t>
+  </si>
+  <si>
+    <t>Textsize as smallest</t>
+  </si>
+  <si>
+    <t>Textsize as smaller</t>
+  </si>
+  <si>
+    <t>Textsize as medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-933
+};
+validate4
+{
+validate_Screenshot=VT056_933
+};
+</t>
+  </si>
+  <si>
+    <t>Timer with url when  start method interval is set</t>
+  </si>
+  <si>
+    <t>PowerOn with persistence</t>
+  </si>
+  <si>
+    <t>Timer with persistence</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-878
+};
+validate4
+{
+validate_Result=alarm set.. wait to trigger
+};
+validate4
+{
+validate_Result=1
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-880
+};
+validate4
+{
+validate_PageTitle=Navigation Check
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-881
+};
+validate4
+{
+validate_AppMinimized=AppsScreen
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-882
+};
+validate4
+{
+validate_AppMinimized=AppsScreen
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-883
+};
+validate4
+{
+validate_AppMinimized=AppsScreen
+};
+validate5
+{
+validate_PageTitle=Device &amp; Application
+validate_Result=Minimized
+validate_Result=Restored
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-1365
+};
+validate4
+{
+validate_PageTitle=Pocket Browser Tests
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-894
+};
+validate4
+{
+validate_isIconDisplayed=hourglass_xpath,true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-895
+};
+validate4
+{
+validate_isIconDisplayed=hourglass_xpath,false
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-897
+};
+validate4
+{
+validate_isIconDisplayed=hourglass_xpath,true
+validate_Iconposition=hourglass_xpath,left,10
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-898
+};
+validate4
+{
+validate_Iconposition=hourglass_xpath,top,10
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-900
+};
+validate4
+{
+validate_isIconDisplayed=hourglass_xpath,true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-906
+};
+validate4
+{
+validate_PageTitle=Navigation Check
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-1368
+};
+validate4
+{
+validate_PageTitle=Pocket Browser Tests
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-934
+};
+validate4
+{
+validate_PageTitle=Navigation Check
+};
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-1369
+};
+validate4
+{
+validate_PageTitle=Pocket Browser Tests
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-936
+};
+validate4
+{
+validate_Result=timer stop called
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-935
+};
+validate4
+{
+validate_Result=Current time is using javascript is
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-932
+};
+validate4
+{
+validate_Screenshot=VT056_932
+};
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-931
+};
+validate4
+{
+validate_Screenshot=VT056_931
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-928
+};
+validate4
+{
+validate_Screenshot=VT056_928
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-927
+};
+validate4
+{
+validate_Screenshot=VT056_927
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-916
+};
+validate4
+{
+validate_screenOrientation=rotation0
+validate_Result=normal
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-915
+};
+validate4
+{
+validate_screenOrientation=rotation3
+validate_PageTitle=Navigation Check
+};
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-914
+};
+validate4
+{
+validate_screenOrientation=rotation0
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-912
+};
+validate4
+{
+validate_screenOrientation=rotation1
+};
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-911
+};
+validate4
+{
+validate_screenOrientation=rotation3
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-906
+};
+</t>
+  </si>
+  <si>
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\RE_2.2\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
 PushConfigxml;</t>
   </si>
   <si>
-    <t>Device &amp; Application Clear the Alarm when set using interval param</t>
-  </si>
-  <si>
-    <t>Restore with ApplicationEvent</t>
-  </si>
-  <si>
-    <t>History:Back Navigation</t>
-  </si>
-  <si>
-    <t>Hourglass hidden</t>
-  </si>
-  <si>
-    <t>Change Start page</t>
-  </si>
-  <si>
-    <t>Timer with start method when interval is set</t>
-  </si>
-  <si>
-    <t>Timer with stop</t>
-  </si>
-  <si>
-    <t>Set the alarm</t>
-  </si>
-  <si>
-    <t>Set the alarm with Repeat value to false</t>
-  </si>
-  <si>
-    <t>alarm with different interval</t>
-  </si>
-  <si>
-    <t>Hourglass visible</t>
-  </si>
-  <si>
-    <t>Hourglass left</t>
-  </si>
-  <si>
-    <t>Hourglass top</t>
-  </si>
-  <si>
-    <t>Hourglass</t>
-  </si>
-  <si>
-    <t>PowerOn Event with javascript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-876
-};
-validate4
-{
-validate_Result=1
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-878
-};
-validate4
-{
-validate_Result=alarm set.. wait to trigger
-};
-validate4
-{
-validate_Result=1
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-881
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-877
-};
-validate4
-{
-validate_Result=Alarm Cleared
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-883
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};
-validate5
-{
-validate_PageTitle=Device &amp; Application
-validate_Result=Minimized
-validate_Result=Restored
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-1365
-};
-validate4
-{
-validate_PageTitle=Pocket Browser Tests
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-906
-};
-</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_874_string);
@@ -275,7 +801,7 @@
   <si>
     <t>wait(2);
 validate1;
-link_Click(Deviceapplication_test_link);
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_875_string);
@@ -287,7 +813,7 @@
   <si>
     <t>wait(2);
 validate1;
-link_Click(Deviceapplication_test_link);
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_876_string);
@@ -299,9 +825,9 @@
 validate4;</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_878_string);
@@ -310,13 +836,24 @@
 wait(30);
 validate4;
 wait(15);
-validate5;
-</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_880_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(30);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_881_string);
@@ -326,9 +863,21 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_882_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_877_string);
@@ -338,9 +887,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_883_string);
@@ -351,21 +900,75 @@
 validate5;</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_1365_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_894_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_895_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_897_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_898_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_900_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_906_string);
@@ -374,239 +977,12 @@
 Lock_UnlockScreen(lock);
 Lock_UnlockScreen(unlock);
 wait(2);
-CheckUITextContains(Powered_Up);
-ClickUIButtonText(OK);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-874
-};
-validate4
-{
-validate_Result=2
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-875
-};
-validate4
-{
-validate_Result=2
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-882
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_882_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>alarm with URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_880_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(30);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-880
-};
-validate4
-{
-validate_PageTitle=Navigation Check
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_894_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-894
-};
-validate4
-{
-validate_isIconDisplayed=hourglass_xpath,true
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_895_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_897_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_898_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-895
-};
-validate4
-{
-validate_isIconDisplayed=hourglass_xpath,false
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_900_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-900
-};
-validate4
-{
-validate_isIconDisplayed=hourglass_xpath,true
-};
-</t>
-  </si>
-  <si>
-    <t>PowerOn Event with url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_906_string);
@@ -615,552 +991,170 @@
 Lock_UnlockScreen(lock);
 Lock_UnlockScreen(unlock);
 wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-906
-};
-validate4
-{
-validate_PageTitle=Navigation Check
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-897
-};
-validate4
-{
-validate_isIconDisplayed=hourglass_xpath,true
-validate_Iconposition=hourglass_xpath,left,10
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-898
-};
-validate4
-{
-validate_Iconposition=hourglass_xpath,top,10
-};
-</t>
-  </si>
-  <si>
-    <t>ScreenOrientation RightHanded</t>
-  </si>
-  <si>
-    <t>ScreenOrientation LeftHanded</t>
-  </si>
-  <si>
-    <t>ScreenOrientation Upsidedown</t>
-  </si>
-  <si>
-    <t>ScreenOrientation Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+CheckUITextContains(Powered_Up);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_911_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_912_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-911
-};
-validate4
-{
-validate_screenOrientation=rotation3
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-912
-};
-validate4
-{
-validate_screenOrientation=rotation1
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-913
-};
-validate4
-{
-validate_screenOrientation=rotation2
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-914
-};
-validate4
-{
-validate_screenOrientation=rotation0
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_913_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_914_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>ScreenOrientation with url</t>
-  </si>
-  <si>
-    <t>ScreenOrientation with javascript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_915_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_916_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-915
-};
-validate4
-{
-validate_screenOrientation=rotation3
-validate_PageTitle=Navigation Check
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-916
-};
-validate4
-{
-validate_screenOrientation=rotation0
-validate_Result=normal
-};
-</t>
-  </si>
-  <si>
-    <t>Textsize as largest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_927_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-TakeScreenshot(VT056_927);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-927
-};
-validate4
-{
-validate_Screenshot=VT056_927
-};
-</t>
-  </si>
-  <si>
-    <t>Textsize as larger</t>
-  </si>
-  <si>
-    <t>Textsize as smallest</t>
-  </si>
-  <si>
-    <t>Textsize as smaller</t>
-  </si>
-  <si>
-    <t>Textsize as medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+TakeScreenshot(VT056_927);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_928_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-TakeScreenshot(VT056_928);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-928
-};
-validate4
-{
-validate_Screenshot=VT056_928
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+TakeScreenshot(VT056_928);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_931_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-TakeScreenshot(VT056_931);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-931
-};
-validate4
-{
-validate_Screenshot=VT056_931
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+TakeScreenshot(VT056_931);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_932_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-TakeScreenshot(VT056_932);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-932
-};
-validate4
-{
-validate_Screenshot=VT056_932
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+TakeScreenshot(VT056_932);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_933_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-TakeScreenshot(VT056_933);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-933
-};
-validate4
-{
-validate_Screenshot=VT056_933
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-935
-};
-validate4
-{
-validate_Result=Current time is using javascript is
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+TakeScreenshot(VT056_933);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_934_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(5);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_935_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
 wait(7);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>Timer with url when  start method interval is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_934_string);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_936_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
 wait(5);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-934
-};
-validate4
-{
-validate_PageTitle=Navigation Check
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-936
-};
-validate4
-{
-validate_Result=timer stop called
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_936_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>PowerOn with persistence</t>
-  </si>
-  <si>
-    <t>Timer with persistence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_1368_string);
@@ -1170,32 +1164,12 @@
 Lock_UnlockScreen(lock);
 Lock_UnlockScreen(unlock);
 CheckUITextContains(PersistenceCheckPower);
-vaidate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-1368
-};
-validate4
-{
-validate_PageTitle=Pocket Browser Tests
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(Deviceapplication_test_link);
+vaidate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT056_1369_string);
@@ -1206,27 +1180,7 @@
 ClickRunTest(runtest_top_xpath);
 press_Key(Back);
 CheckUITextContains(PersistenceCheckTimer);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-1369
-};
-validate4
-{
-validate_PageTitle=Pocket Browser Tests
-}
-</t>
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1729,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="217.5" thickBot="1">
+    <row r="2" spans="1:11" ht="204.75" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1789,11 +1743,11 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1814,16 +1768,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1847,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1868,22 +1822,22 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="268.5" thickBot="1">
+    <row r="6" spans="1:11" ht="255.75" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1895,22 +1849,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="217.5" thickBot="1">
+    <row r="7" spans="1:11" ht="204.75" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1922,13 +1876,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>54</v>
@@ -1937,7 +1891,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="217.5" thickBot="1">
+    <row r="8" spans="1:11" ht="204.75" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1955,16 +1909,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="217.5" thickBot="1">
+    <row r="9" spans="1:11" ht="204.75" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1982,10 +1936,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2003,22 +1957,22 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="294" thickBot="1">
+    <row r="11" spans="1:11" ht="281.25" thickBot="1">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2030,22 +1984,22 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="217.5" thickBot="1">
+    <row r="12" spans="1:11" ht="204.75" thickBot="1">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2057,22 +2011,22 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="230.25" thickBot="1">
+    <row r="13" spans="1:11" ht="217.5" thickBot="1">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2084,22 +2038,22 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="230.25" thickBot="1">
+    <row r="14" spans="1:11" ht="217.5" thickBot="1">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2111,13 +2065,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>60</v>
@@ -2126,7 +2080,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="268.5" thickBot="1">
+    <row r="15" spans="1:11" ht="243" thickBot="1">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2138,22 +2092,22 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="230.25" thickBot="1">
+    <row r="16" spans="1:11" ht="217.5" thickBot="1">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2165,22 +2119,22 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="230.25" thickBot="1">
+    <row r="17" spans="1:11" ht="217.5" thickBot="1">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2192,22 +2146,22 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="217.5" thickBot="1">
+    <row r="18" spans="1:11" ht="204.75" thickBot="1">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2219,22 +2173,22 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="204.75" thickBot="1">
+    <row r="19" spans="1:11" ht="166.5" thickBot="1">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -2246,22 +2200,22 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="230.25" thickBot="1">
+    <row r="20" spans="1:11" ht="204.75" thickBot="1">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -2273,22 +2227,22 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="230.25" thickBot="1">
+    <row r="21" spans="1:11" ht="217.5" thickBot="1">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -2300,16 +2254,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2327,22 +2281,22 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="230.25" thickBot="1">
+    <row r="23" spans="1:11" ht="204.75" thickBot="1">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -2354,22 +2308,22 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="243" thickBot="1">
+    <row r="24" spans="1:11" ht="230.25" thickBot="1">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -2381,22 +2335,22 @@
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="243" thickBot="1">
+    <row r="25" spans="1:11" ht="230.25" thickBot="1">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -2408,22 +2362,22 @@
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="230.25" thickBot="1">
+    <row r="26" spans="1:11" ht="217.5" thickBot="1">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -2435,22 +2389,22 @@
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="230.25" thickBot="1">
+    <row r="27" spans="1:11" ht="217.5" thickBot="1">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -2462,22 +2416,22 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="230.25" thickBot="1">
+    <row r="28" spans="1:11" ht="204.75" thickBot="1">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -2489,22 +2443,22 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="230.25" thickBot="1">
+    <row r="29" spans="1:11" ht="217.5" thickBot="1">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -2516,16 +2470,16 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2543,22 +2497,22 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="230.25" thickBot="1">
+    <row r="31" spans="1:11" ht="217.5" thickBot="1">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -2570,22 +2524,22 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="243" thickBot="1">
+    <row r="32" spans="1:11" ht="217.5" thickBot="1">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -2597,22 +2551,22 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="243" thickBot="1">
+    <row r="33" spans="1:11" ht="204.75" thickBot="1">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -2624,22 +2578,22 @@
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="255.75" thickBot="1">
+    <row r="34" spans="1:11" ht="204.75" thickBot="1">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -2651,22 +2605,22 @@
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="281.25" thickBot="1">
+    <row r="35" spans="1:11" ht="204.75" thickBot="1">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -2678,16 +2632,16 @@
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_DeviceApplication.xlsx
@@ -60,9 +60,6 @@
     <t>Set the alarm with Repeat value to true.</t>
   </si>
   <si>
-    <t>Device &amp; Application-JS</t>
-  </si>
-  <si>
     <t>Application with Quit</t>
   </si>
   <si>
@@ -274,28 +271,6 @@
   </si>
   <si>
     <t>Timer with persistence</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-878
-};
-validate4
-{
-validate_Result=alarm set.. wait to trigger
-};
-validate4
-{
-validate_Result=1
-};</t>
   </si>
   <si>
     <t>validate1
@@ -349,30 +324,6 @@
 validate4
 {
 validate_AppMinimized=AppsScreen
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-883
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};
-validate5
-{
-validate_PageTitle=Device &amp; Application
-validate_Result=Minimized
-validate_Result=Restored
 };</t>
   </si>
   <si>
@@ -482,24 +433,6 @@
 validate4
 {
 validate_isIconDisplayed=hourglass_xpath,true
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-906
-};
-validate4
-{
-validate_PageTitle=Navigation Check
 };</t>
   </si>
   <si>
@@ -830,32 +763,6 @@
 link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT056_878_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(30);
-validate4;
-wait(15);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_880_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(30);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
 SelectTestToRun(VT056_881_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
@@ -977,20 +884,6 @@
 Lock_UnlockScreen(lock);
 Lock_UnlockScreen(unlock);
 wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_906_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-Lock_UnlockScreen(lock);
-Lock_UnlockScreen(unlock);
-wait(2);
 CheckUITextContains(Powered_Up);
 ClickUIButtonText(OK);</t>
   </si>
@@ -1121,34 +1014,10 @@
 link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT056_934_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
 SelectTestToRun(VT056_935_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
 wait(7);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_936_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(5);
 validate4;</t>
   </si>
   <si>
@@ -1167,6 +1036,123 @@
 vaidate4;</t>
   </si>
   <si>
+    <t>PB-DeviceApplication</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_878_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(30);
+validate4;
+wait(18);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_880_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(35);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-883
+};
+validate4
+{
+validate_AppMinimized=AppsScreen
+};
+validate5
+{
+validate_PageTitle=Device &amp; Application
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-905
+};
+validate4
+{
+validate_PageTitle=Navigation Check
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_934_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(7);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-878
+};
+validate4
+{
+validate_Result=alarm set.. wait to trigger
+};
+validate5
+{
+validate_Result=1
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_905_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+Lock_UnlockScreen(lock);
+Lock_UnlockScreen(unlock);
+wait(5);
+validate4;</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(DeviceApplication_test_link);
@@ -1175,11 +1161,25 @@
 SelectTestToRun(VT056_1369_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-wait(7);
+wait(8);
 CheckUITextContains(timeout_triggered);
+ClickUIButtonText(OK);
 ClickRunTest(runtest_top_xpath);
 press_Key(Back);
+wait(8);
 CheckUITextContains(PersistenceCheckTimer);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_936_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(9);
 validate4;</t>
   </si>
 </sst>
@@ -1683,7 +1683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1737,17 +1739,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1768,16 +1770,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1801,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1822,16 +1824,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1849,16 +1851,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1876,16 +1878,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1903,16 +1905,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1930,16 +1932,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1957,22 +1959,22 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="281.25" thickBot="1">
+    <row r="11" spans="1:11" ht="255.75" thickBot="1">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1984,16 +1986,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2011,16 +2013,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2038,16 +2040,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2065,16 +2067,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2092,16 +2094,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2119,16 +2121,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2146,16 +2148,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2173,16 +2175,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2200,16 +2202,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2227,16 +2229,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2254,16 +2256,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2281,16 +2283,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2308,16 +2310,16 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2335,16 +2337,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2362,16 +2364,16 @@
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2389,16 +2391,16 @@
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2416,16 +2418,16 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2443,16 +2445,16 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2470,16 +2472,16 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2497,16 +2499,16 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2524,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -2533,7 +2535,7 @@
         <v>109</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2551,16 +2553,16 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2578,16 +2580,16 @@
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2605,22 +2607,22 @@
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="204.75" thickBot="1">
+    <row r="35" spans="1:11" ht="230.25" thickBot="1">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -2632,16 +2634,16 @@
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_DeviceApplication.xlsx
@@ -301,42 +301,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT056-881
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT056-882
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
 validate_Text_Exists=VT056-1365
 };
 validate4
@@ -1075,28 +1039,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT056-883
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};
-validate5
-{
-validate_PageTitle=Device &amp; Application
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
 validate_Text_Exists=VT056-905
 };
 validate4
@@ -1181,6 +1123,64 @@
 ClickRunTest(runtest_top_xpath);
 wait(9);
 validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-881
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-882
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-883
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};
+validate5
+{
+validate_PageTitle=Device &amp; Application
+};</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>32</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>33</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>30</v>
@@ -1857,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>52</v>
@@ -1893,7 +1893,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="204.75" thickBot="1">
+    <row r="8" spans="1:11" ht="217.5" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1911,16 +1911,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="204.75" thickBot="1">
+    <row r="9" spans="1:11" ht="217.5" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1938,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>31</v>
@@ -1974,7 +1974,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="255.75" thickBot="1">
+    <row r="11" spans="1:11" ht="268.5" thickBot="1">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1992,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2019,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2046,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2073,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2100,10 +2100,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2127,10 +2127,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2154,10 +2154,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2181,10 +2181,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2208,10 +2208,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2235,10 +2235,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2262,10 +2262,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>40</v>
@@ -2316,10 +2316,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2343,10 +2343,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2370,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2397,10 +2397,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2424,10 +2424,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2451,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2478,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>48</v>
@@ -2532,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2559,10 +2559,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2586,10 +2586,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2613,10 +2613,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2640,10 +2640,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_DeviceApplication.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="117">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -1180,6 +1180,40 @@
 validate5
 {
 validate_PageTitle=Device &amp; Application
+};</t>
+  </si>
+  <si>
+    <t>Alarm with persistence</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(Deviceapplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_1366_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(30);
+CheckUITextContains(Alarm_Fired);
+ClickUIButtonText(OK);
+press_Key(Back);
+wait(30);
+CheckUITextContains(Alarm_Fired);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT056-1366
 };</t>
   </si>
 </sst>
@@ -1681,11 +1715,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2648,6 +2680,33 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" ht="192" thickBot="1">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
